--- a/data/templates/08.Forming.xlsx
+++ b/data/templates/08.Forming.xlsx
@@ -1,68 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD52FD01-C3D9-4DD4-8649-41AFC90C227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C435581E-7CF1-4F34-875C-66CCCF3915F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="540" windowWidth="13200" windowHeight="14940" xr2:uid="{ED5C8F1B-CE5F-4E46-AD3F-63233DC9A587}"/>
+    <workbookView xWindow="-17100" yWindow="390" windowWidth="19140" windowHeight="15210" xr2:uid="{ED5C8F1B-CE5F-4E46-AD3F-63233DC9A587}"/>
   </bookViews>
   <sheets>
-    <sheet name=" 파우치 포밍 작업 일지_수정" sheetId="1" r:id="rId1"/>
+    <sheet name="원본" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="approver">' 파우치 포밍 작업 일지_수정'!$L$5</definedName>
-    <definedName name="cleanCheck">' 파우치 포밍 작업 일지_수정'!$G$40</definedName>
-    <definedName name="cuttingChecklist">' 파우치 포밍 작업 일지_수정'!$I$30</definedName>
-    <definedName name="cuttingDefectQuantity">' 파우치 포밍 작업 일지_수정'!$G$19</definedName>
-    <definedName name="cuttingDefectRate">' 파우치 포밍 작업 일지_수정'!$K$19</definedName>
-    <definedName name="cuttingDiscardQuantity">' 파우치 포밍 작업 일지_수정'!$I$19</definedName>
-    <definedName name="cuttingGoodQuantity">' 파우치 포밍 작업 일지_수정'!$E$19</definedName>
-    <definedName name="cuttingLength">' 파우치 포밍 작업 일지_수정'!$C$30</definedName>
-    <definedName name="cuttingWorkQuantity">' 파우치 포밍 작업 일지_수정'!$C$19</definedName>
-    <definedName name="equipmentCheckResult">' 파우치 포밍 작업 일지_수정'!$C$37</definedName>
-    <definedName name="equipmentIssue">' 파우치 포밍 작업 일지_수정'!$K$37</definedName>
-    <definedName name="foldingDefectQuantity">' 파우치 포밍 작업 일지_수정'!$G$23</definedName>
-    <definedName name="foldingDefectRate">' 파우치 포밍 작업 일지_수정'!$K$23</definedName>
-    <definedName name="foldingDiscardQuantity">' 파우치 포밍 작업 일지_수정'!$I$23</definedName>
-    <definedName name="foldingGoodQuantity">' 파우치 포밍 작업 일지_수정'!$E$23</definedName>
-    <definedName name="foldingWorkQuantity">' 파우치 포밍 작업 일지_수정'!$C$23</definedName>
-    <definedName name="formingChecklist">' 파우치 포밍 작업 일지_수정'!$I$32</definedName>
-    <definedName name="formingDefectQuantity">' 파우치 포밍 작업 일지_수정'!$G$21</definedName>
-    <definedName name="formingDefectRate">' 파우치 포밍 작업 일지_수정'!$K$21</definedName>
-    <definedName name="formingDepth">' 파우치 포밍 작업 일지_수정'!$E$32</definedName>
-    <definedName name="formingDiscardQuantity">' 파우치 포밍 작업 일지_수정'!$I$21</definedName>
-    <definedName name="formingGoodQuantity">' 파우치 포밍 작업 일지_수정'!$E$21</definedName>
-    <definedName name="formingStopperHeight">' 파우치 포밍 작업 일지_수정'!$G$32</definedName>
-    <definedName name="formingWorkQuantity">' 파우치 포밍 작업 일지_수정'!$C$21</definedName>
-    <definedName name="jigNumber">' 파우치 포밍 작업 일지_수정'!$G$37</definedName>
-    <definedName name="line">' 파우치 포밍 작업 일지_수정'!$C$9</definedName>
-    <definedName name="manufactureDate">' 파우치 포밍 작업 일지_수정'!$C$7</definedName>
-    <definedName name="plant">' 파우치 포밍 작업 일지_수정'!$G$9</definedName>
-    <definedName name="pouchLot">' 파우치 포밍 작업 일지_수정'!$C$14</definedName>
-    <definedName name="pouchManufacturer">' 파우치 포밍 작업 일지_수정'!$E$14</definedName>
-    <definedName name="pouchSpec">' 파우치 포밍 작업 일지_수정'!$G$14</definedName>
-    <definedName name="pouchUsage">' 파우치 포밍 작업 일지_수정'!$K$14</definedName>
-    <definedName name="productionId">' 파우치 포밍 작업 일지_수정'!$G$7</definedName>
-    <definedName name="remark">' 파우치 포밍 작업 일지_수정'!$A$43</definedName>
-    <definedName name="reviewer">' 파우치 포밍 작업 일지_수정'!$K$5</definedName>
-    <definedName name="safety">' 파우치 포밍 작업 일지_수정'!$K$40</definedName>
-    <definedName name="shift">' 파우치 포밍 작업 일지_수정'!$K$9</definedName>
-    <definedName name="tempHumi">' 파우치 포밍 작업 일지_수정'!$C$40</definedName>
-    <definedName name="topCuttingChecklist">' 파우치 포밍 작업 일지_수정'!$I$34</definedName>
-    <definedName name="topCuttingDefectQuantity">' 파우치 포밍 작업 일지_수정'!$G$25</definedName>
-    <definedName name="topCuttingDefectRate">' 파우치 포밍 작업 일지_수정'!$K$25</definedName>
-    <definedName name="topCuttingDiscardQuantity">' 파우치 포밍 작업 일지_수정'!$I$25</definedName>
-    <definedName name="topCuttingGoodQuantity">' 파우치 포밍 작업 일지_수정'!$E$25</definedName>
-    <definedName name="topCuttingLength">' 파우치 포밍 작업 일지_수정'!$C$34</definedName>
-    <definedName name="topCuttingWorkQuantity">' 파우치 포밍 작업 일지_수정'!$C$25</definedName>
-    <definedName name="worker">' 파우치 포밍 작업 일지_수정'!$K$7</definedName>
-    <definedName name="writer">' 파우치 포밍 작업 일지_수정'!$J$5</definedName>
+    <definedName name="approver">원본!$L$5</definedName>
+    <definedName name="cleanCheck">원본!$G$40</definedName>
+    <definedName name="cuttingChecklist">원본!$I$30</definedName>
+    <definedName name="cuttingDefectQuantity">원본!$G$19</definedName>
+    <definedName name="cuttingDefectRate">원본!$K$19</definedName>
+    <definedName name="cuttingDiscardQuantity">원본!$I$19</definedName>
+    <definedName name="cuttingGoodQuantity">원본!$E$19</definedName>
+    <definedName name="cuttingLength">원본!$C$30</definedName>
+    <definedName name="cuttingWorkQuantity">원본!$C$19</definedName>
+    <definedName name="equipmentCheckResult">원본!$C$37</definedName>
+    <definedName name="equipmentIssue">원본!$K$37</definedName>
+    <definedName name="foldingDefectQuantity">원본!$G$23</definedName>
+    <definedName name="foldingDefectRate">원본!$K$23</definedName>
+    <definedName name="foldingDiscardQuantity">원본!$I$23</definedName>
+    <definedName name="foldingGoodQuantity">원본!$E$23</definedName>
+    <definedName name="foldingWorkQuantity">원본!$C$23</definedName>
+    <definedName name="formingChecklist">원본!$I$32</definedName>
+    <definedName name="formingDefectQuantity">원본!$G$21</definedName>
+    <definedName name="formingDefectRate">원본!$K$21</definedName>
+    <definedName name="formingDepth">원본!$E$32</definedName>
+    <definedName name="formingDiscardQuantity">원본!$I$21</definedName>
+    <definedName name="formingGoodQuantity">원본!$E$21</definedName>
+    <definedName name="formingStopperHeight">원본!$G$32</definedName>
+    <definedName name="formingWorkQuantity">원본!$C$21</definedName>
+    <definedName name="jigNumber">원본!$G$37</definedName>
+    <definedName name="line">원본!$C$9</definedName>
+    <definedName name="manufactureDate">원본!$C$7</definedName>
+    <definedName name="plant">원본!$G$9</definedName>
+    <definedName name="pouchLot">원본!$C$14</definedName>
+    <definedName name="pouchManufacturer">원본!$E$14</definedName>
+    <definedName name="pouchSpec">원본!$G$14</definedName>
+    <definedName name="pouchUsage">원본!$K$14</definedName>
+    <definedName name="productionId">원본!$G$7</definedName>
+    <definedName name="remark">원본!$A$43</definedName>
+    <definedName name="reviewer">원본!$K$5</definedName>
+    <definedName name="safety">원본!$K$40</definedName>
+    <definedName name="shift">원본!$K$9</definedName>
+    <definedName name="tempHumi">원본!$C$40</definedName>
+    <definedName name="topCuttingChecklist">원본!$I$34</definedName>
+    <definedName name="topCuttingDefectQuantity">원본!$G$25</definedName>
+    <definedName name="topCuttingDefectRate">원본!$K$25</definedName>
+    <definedName name="topCuttingDiscardQuantity">원본!$I$25</definedName>
+    <definedName name="topCuttingGoodQuantity">원본!$E$25</definedName>
+    <definedName name="topCuttingLength">원본!$C$34</definedName>
+    <definedName name="topCuttingWorkQuantity">원본!$C$25</definedName>
+    <definedName name="worker">원본!$K$7</definedName>
+    <definedName name="writer">원본!$J$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -523,12 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,111 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,6 +558,117 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,7 +1006,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6703C5-399E-4855-A3F0-6A9FBC80A11B}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L49"/>
@@ -1021,17 +1020,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1043,796 +1042,862 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8" t="s">
+      <c r="F9" s="32"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="8" t="s">
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="10" t="s">
+      <c r="J17" s="34"/>
+      <c r="K17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="10"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="34"/>
+      <c r="G28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="11" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="16"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="31" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="36"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="38"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="38"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="35" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="31" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="36"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="38"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="29"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="18" t="s">
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="41" t="s">
+      <c r="J37" s="15"/>
+      <c r="K37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="42"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="7"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="42" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="18" t="s">
+      <c r="D40" s="16"/>
+      <c r="E40" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="42" t="s">
+      <c r="F40" s="15"/>
+      <c r="G40" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="18" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="42" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L40" s="42"/>
+      <c r="L40" s="16"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="48"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="48"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="48"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="48"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="48"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="51"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A43:L49"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="I40:J41"/>
-    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="K25:L26"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K23:L24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:L29"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="I32:L33"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="I30:L31"/>
     <mergeCell ref="K37:L38"/>
     <mergeCell ref="A34:B35"/>
     <mergeCell ref="C34:D35"/>
@@ -1845,81 +1910,15 @@
     <mergeCell ref="E37:F38"/>
     <mergeCell ref="G37:H38"/>
     <mergeCell ref="I37:J38"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:H31"/>
-    <mergeCell ref="I30:L31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="I32:L33"/>
-    <mergeCell ref="A27:L27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:L29"/>
-    <mergeCell ref="K25:L26"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K23:L24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:J26"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="K17:L18"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A43:L49"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="I40:J41"/>
+    <mergeCell ref="K40:L41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
